--- a/DFT_Calculations/3.get_properties/gp_openshell/5.postprocessed_results/Summary_Properties_all.xlsx
+++ b/DFT_Calculations/3.get_properties/gp_openshell/5.postprocessed_results/Summary_Properties_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Compound_Name</t>
   </si>
@@ -98,12 +98,6 @@
   </si>
   <si>
     <t>Sterimol_B5_C1_C2(Å)_morfeus_Boltz</t>
-  </si>
-  <si>
-    <t>pyramidalization_Gavrish_C1(°)_Boltz</t>
-  </si>
-  <si>
-    <t>pyramidalization_Agranat-Radhakrishnan_C1_Boltz</t>
   </si>
   <si>
     <t>pyrdz1</t>
@@ -566,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD36"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -593,11 +587,9 @@
     <col min="24" max="25" width="19.7109375" customWidth="1"/>
     <col min="26" max="26" width="33.7109375" customWidth="1"/>
     <col min="27" max="28" width="34.7109375" customWidth="1"/>
-    <col min="29" max="29" width="36.7109375" customWidth="1"/>
-    <col min="30" max="30" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,16 +674,10 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" t="s">
         <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
-      <c r="A2" t="s">
-        <v>30</v>
       </c>
       <c r="B2">
         <v>-302.930027</v>
@@ -774,16 +760,10 @@
       <c r="AB2">
         <v>3.261610894206323</v>
       </c>
-      <c r="AC2">
-        <v>0.001160842286618436</v>
-      </c>
-      <c r="AD2">
-        <v>0.0001747527194562766</v>
-      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>-302.930289</v>
@@ -866,16 +846,10 @@
       <c r="AB3">
         <v>3.270417371590462</v>
       </c>
-      <c r="AC3">
-        <v>0.006961068992791808</v>
-      </c>
-      <c r="AD3">
-        <v>0.001047528360166631</v>
-      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>-342.243845</v>
@@ -958,16 +932,10 @@
       <c r="AB4">
         <v>3.26672542274073</v>
       </c>
-      <c r="AC4">
-        <v>0.003600500541489074</v>
-      </c>
-      <c r="AD4">
-        <v>0.000540466035491132</v>
-      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>-440.561372</v>
@@ -1050,16 +1018,10 @@
       <c r="AB5">
         <v>4.634241735410031</v>
       </c>
-      <c r="AC5">
-        <v>0.003384712563802958</v>
-      </c>
-      <c r="AD5">
-        <v>0.0005095253390418424</v>
-      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>-440.56109</v>
@@ -1142,16 +1104,10 @@
       <c r="AB6">
         <v>4.32023067308818</v>
       </c>
-      <c r="AC6">
-        <v>0.003770977278349009</v>
-      </c>
-      <c r="AD6">
-        <v>0.0005674069619305055</v>
-      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>-440.560235</v>
@@ -1234,16 +1190,10 @@
       <c r="AB7">
         <v>5.719376375537507</v>
       </c>
-      <c r="AC7">
-        <v>0.001437999498789009</v>
-      </c>
-      <c r="AD7">
-        <v>0.0002161625401717892</v>
-      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>-440.559301</v>
@@ -1326,16 +1276,10 @@
       <c r="AB8">
         <v>5.73084897754546</v>
       </c>
-      <c r="AC8">
-        <v>0.001690488067145327</v>
-      </c>
-      <c r="AD8">
-        <v>0.000254140451796319</v>
-      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>-440.560694</v>
@@ -1418,16 +1362,10 @@
       <c r="AB9">
         <v>4.388775210739726</v>
       </c>
-      <c r="AC9">
-        <v>0.0005157139913190157</v>
-      </c>
-      <c r="AD9">
-        <v>7.763637349886503E-05</v>
-      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>-440.559622</v>
@@ -1510,16 +1448,10 @@
       <c r="AB10">
         <v>5.713309756808888</v>
       </c>
-      <c r="AC10">
-        <v>0.001028030833864126</v>
-      </c>
-      <c r="AD10">
-        <v>0.0001545261989087327</v>
-      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>-479.875564</v>
@@ -1602,16 +1534,10 @@
       <c r="AB11">
         <v>4.555282912560074</v>
       </c>
-      <c r="AC11">
-        <v>0.001691422680309833</v>
-      </c>
-      <c r="AD11">
-        <v>0.0002540081573674681</v>
-      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>-479.873294</v>
@@ -1694,16 +1620,10 @@
       <c r="AB12">
         <v>4.283119753190393</v>
       </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>9.149531403551907E-11</v>
-      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>-479.867345</v>
@@ -1786,16 +1706,10 @@
       <c r="AB13">
         <v>5.671459708322152</v>
       </c>
-      <c r="AC13">
-        <v>0.0007720500158945728</v>
-      </c>
-      <c r="AD13">
-        <v>0.0001143745450932646</v>
-      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>-479.866207</v>
@@ -1878,16 +1792,10 @@
       <c r="AB14">
         <v>5.687588834217621</v>
       </c>
-      <c r="AC14">
-        <v>0.1643259780516135</v>
-      </c>
-      <c r="AD14">
-        <v>0.02428144991327511</v>
-      </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>-479.873734</v>
@@ -1970,16 +1878,10 @@
       <c r="AB15">
         <v>4.429263536895336</v>
       </c>
-      <c r="AC15">
-        <v>0.001047757511405654</v>
-      </c>
-      <c r="AD15">
-        <v>0.0001572384926063548</v>
-      </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>-479.866439</v>
@@ -2062,16 +1964,10 @@
       <c r="AB16">
         <v>5.663583853863676</v>
       </c>
-      <c r="AC16">
-        <v>0.0001701811041882851</v>
-      </c>
-      <c r="AD16">
-        <v>2.523681076766826E-05</v>
-      </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>-286.923974</v>
@@ -2154,16 +2050,10 @@
       <c r="AB17">
         <v>3.317542094093886</v>
       </c>
-      <c r="AC17">
-        <v>0.001255163548363714</v>
-      </c>
-      <c r="AD17">
-        <v>0.0001889526075853006</v>
-      </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>-286.922899</v>
@@ -2246,16 +2136,10 @@
       <c r="AB18">
         <v>3.264481630609611</v>
       </c>
-      <c r="AC18">
-        <v>0.001885673417566543</v>
-      </c>
-      <c r="AD18">
-        <v>0.0002837454957284135</v>
-      </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>-286.922711</v>
@@ -2338,16 +2222,10 @@
       <c r="AB19">
         <v>3.264188925414438</v>
       </c>
-      <c r="AC19">
-        <v>0.00646793103093299</v>
-      </c>
-      <c r="AD19">
-        <v>0.0009732240900725599</v>
-      </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>-326.237649</v>
@@ -2430,16 +2308,10 @@
       <c r="AB20">
         <v>3.276297649967303</v>
       </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>1.171549609404351E-11</v>
-      </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>-326.234716</v>
@@ -2522,16 +2394,10 @@
       <c r="AB21">
         <v>3.264577882447845</v>
       </c>
-      <c r="AC21">
-        <v>0.003123538101525899</v>
-      </c>
-      <c r="AD21">
-        <v>0.0004691223045483085</v>
-      </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>-326.235067</v>
@@ -2614,16 +2480,10 @@
       <c r="AB22">
         <v>3.265828871770875</v>
       </c>
-      <c r="AC22">
-        <v>0.0004179460010828461</v>
-      </c>
-      <c r="AD22">
-        <v>6.276241943395776E-05</v>
-      </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>-456.606644</v>
@@ -2706,16 +2566,10 @@
       <c r="AB23">
         <v>4.413689539907482</v>
       </c>
-      <c r="AC23">
-        <v>0.001162478920763459</v>
-      </c>
-      <c r="AD23">
-        <v>0.0001750313116540436</v>
-      </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>-456.587224</v>
@@ -2798,16 +2652,10 @@
       <c r="AB24">
         <v>5.717709155491042</v>
       </c>
-      <c r="AC24">
-        <v>0.9798182362187645</v>
-      </c>
-      <c r="AD24">
-        <v>0.1471382082192786</v>
-      </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>-495.921385</v>
@@ -2890,16 +2738,10 @@
       <c r="AB25">
         <v>4.376254323248389</v>
       </c>
-      <c r="AC25">
-        <v>0.001027951456986088</v>
-      </c>
-      <c r="AD25">
-        <v>0.0001542465140779137</v>
-      </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>-495.914512</v>
@@ -2982,16 +2824,10 @@
       <c r="AB26">
         <v>5.662686495953656</v>
       </c>
-      <c r="AC26">
-        <v>0.0003095146100446279</v>
-      </c>
-      <c r="AD26">
-        <v>4.582803147754092E-05</v>
-      </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>-302.96869</v>
@@ -3074,16 +2910,10 @@
       <c r="AB27">
         <v>3.254749701428357</v>
       </c>
-      <c r="AC27">
-        <v>0.0001889254756616594</v>
-      </c>
-      <c r="AD27">
-        <v>2.844557183823626E-05</v>
-      </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28">
         <v>-302.968962</v>
@@ -3166,16 +2996,10 @@
       <c r="AB28">
         <v>3.266518267835377</v>
       </c>
-      <c r="AC28">
-        <v>3.128011778831864E-05</v>
-      </c>
-      <c r="AD28">
-        <v>4.709170623532936E-06</v>
-      </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29">
         <v>-302.967347</v>
@@ -3258,16 +3082,10 @@
       <c r="AB29">
         <v>3.262784862130815</v>
       </c>
-      <c r="AC29">
-        <v>0.001018016957671878</v>
-      </c>
-      <c r="AD29">
-        <v>0.0001531931169143332</v>
-      </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>-342.283197</v>
@@ -3350,16 +3168,10 @@
       <c r="AB30">
         <v>3.295653866340422</v>
       </c>
-      <c r="AC30">
-        <v>0.000217438659122282</v>
-      </c>
-      <c r="AD30">
-        <v>3.261711797565641E-05</v>
-      </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31">
         <v>-342.283768</v>
@@ -3442,16 +3254,10 @@
       <c r="AB31">
         <v>3.270054036323949</v>
       </c>
-      <c r="AC31">
-        <v>0.0006975798426361785</v>
-      </c>
-      <c r="AD31">
-        <v>0.00010475404666875</v>
-      </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32">
         <v>-342.279133</v>
@@ -3534,16 +3340,10 @@
       <c r="AB32">
         <v>3.264943661955711</v>
       </c>
-      <c r="AC32">
-        <v>0.0004265269065535014</v>
-      </c>
-      <c r="AD32">
-        <v>6.405954750363721E-05</v>
-      </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33">
         <v>-456.601997</v>
@@ -3626,16 +3426,10 @@
       <c r="AB33">
         <v>4.366581268688364</v>
       </c>
-      <c r="AC33">
-        <v>0.001237640649965756</v>
-      </c>
-      <c r="AD33">
-        <v>0.0001863180381383483</v>
-      </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B34">
         <v>-495.916761</v>
@@ -3718,16 +3512,10 @@
       <c r="AB34">
         <v>4.332953324415987</v>
       </c>
-      <c r="AC34">
-        <v>0.0007736275475564862</v>
-      </c>
-      <c r="AD34">
-        <v>0.0001161890690014869</v>
-      </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B35">
         <v>-302.962267</v>
@@ -3810,16 +3598,10 @@
       <c r="AB35">
         <v>3.270370091187877</v>
       </c>
-      <c r="AC35">
-        <v>6.042864575363498E-05</v>
-      </c>
-      <c r="AD35">
-        <v>9.097469598202788E-06</v>
-      </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36">
         <v>-342.27414</v>
@@ -3901,12 +3683,6 @@
       </c>
       <c r="AB36">
         <v>3.266762849868151</v>
-      </c>
-      <c r="AC36">
-        <v>0.0007720985343004276</v>
-      </c>
-      <c r="AD36">
-        <v>0.0001158093321595495</v>
       </c>
     </row>
   </sheetData>
